--- a/anova-rcbd-v7.xlsx
+++ b/anova-rcbd-v7.xlsx
@@ -1441,6 +1441,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFCC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC00CC"/>
     </mruColors>
@@ -20241,15 +20242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20264,17 +20265,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9639301" y="190500"/>
-          <a:ext cx="2743200" cy="809625"/>
+          <a:off x="9467851" y="885826"/>
+          <a:ext cx="2743200" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:srgbClr val="66FFCC"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -20308,42 +20306,76 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> SOẠN: TAN DUC NGUYEN</a:t>
+            <a:t> SOẠN: DUC NGUYEN |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>TỰ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> HỌC R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>tuhocr.com@gmail.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>Chuyên đào tạo kỹ năng xử lý dữ liệu với R</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>ANOVA -</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>TDN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> METHOD</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>https://sites.google.com/view/xstk</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>tanduc307@gmail.com</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12163425" y="972471"/>
+          <a:ext cx="1143000" cy="884903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20651,8 +20683,8 @@
   </sheetPr>
   <dimension ref="K22:DG302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ES280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EX299" sqref="EX299"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
